--- a/src/test/resources/org/xlbean/writer/TestBook_BeanDefinitionLoader.xlsx
+++ b/src/test/resources/org/xlbean/writer/TestBook_BeanDefinitionLoader.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\git\xlbean\src\test\resources\org\xlbean\writer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D137B3D8-A3DE-4335-A32B-141447F56099}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D418910-1D42-4222-AD4B-360B23CABADC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>####</t>
     <phoneticPr fontId="1"/>
@@ -87,7 +87,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ccc2-3</t>
+    <t>list#anotherList[1].ccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ccc3-2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -455,7 +459,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -477,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -522,7 +526,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
